--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_6_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_6_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3800105.513885423</v>
+        <v>3801924.785576464</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9964927.035287924</v>
+        <v>9964927.035287943</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>430763.7823717228</v>
+        <v>430763.7823717208</v>
       </c>
     </row>
     <row r="9">
@@ -664,19 +664,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>36.74365704764519</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>399.3976635617693</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -828,7 +828,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>25.31590541686235</v>
+        <v>25.31590541686258</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -898,13 +898,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>300.2994412657488</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>60.46179076613115</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>10.70305333391221</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1141,7 +1141,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>6.283679164003906</v>
       </c>
       <c r="S8" t="n">
-        <v>5.983388191319154</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14.52687838733165</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H11" t="n">
-        <v>283.5630920045435</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T11" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U11" t="n">
         <v>250.9088959876463</v>
@@ -1466,7 +1466,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H12" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>158.4224829334633</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>125.6497826179184</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,7 +1545,7 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S13" t="n">
-        <v>181.338488358459</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T13" t="n">
         <v>217.4819944627618</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8432760127566</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H14" t="n">
         <v>283.5630920045443</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T14" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374736</v>
       </c>
       <c r="U14" t="n">
         <v>250.9088959876463</v>
@@ -1703,7 +1703,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1770,10 +1770,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>97.16903449248757</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>64.44601915223836</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4819944627618</v>
@@ -1861,7 +1861,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H17" t="n">
-        <v>283.5630920045443</v>
+        <v>283.5630920045434</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T17" t="n">
-        <v>199.1970568374736</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U17" t="n">
         <v>250.9088959876463</v>
@@ -1940,7 +1940,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H18" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2004,16 +2004,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>86.27179222793767</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5420528771669</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>64.44601915223836</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S19" t="n">
-        <v>181.338488358459</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T19" t="n">
         <v>217.4819944627618</v>
@@ -2098,7 +2098,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H20" t="n">
-        <v>283.5630920045434</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T20" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U20" t="n">
         <v>250.9088959876463</v>
@@ -2177,7 +2177,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H21" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>134.4151994861235</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>7.729505493042338</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S22" t="n">
-        <v>181.338488358459</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T22" t="n">
         <v>217.4819944627618</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T23" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U23" t="n">
         <v>250.9088959876463</v>
@@ -2414,7 +2414,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H24" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.80457674440903</v>
+        <v>81.37259901119562</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S25" t="n">
-        <v>181.338488358459</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T25" t="n">
-        <v>59.66944707863718</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U25" t="n">
         <v>286.1854515484204</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T26" t="n">
-        <v>199.1970568374736</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U26" t="n">
         <v>250.9088959876463</v>
@@ -2651,7 +2651,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H27" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>23.94516103140631</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2727,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U28" t="n">
-        <v>153.9036548888877</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T29" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374745</v>
       </c>
       <c r="U29" t="n">
         <v>250.9088959876463</v>
@@ -2888,7 +2888,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H30" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2958,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>67.39673437957357</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H31" t="n">
-        <v>140.4539897919539</v>
+        <v>23.89867717508191</v>
       </c>
       <c r="I31" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S31" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4819944627618</v>
@@ -3012,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T32" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U32" t="n">
         <v>250.9088959876463</v>
@@ -3125,7 +3125,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H33" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>46.39657156243295</v>
+        <v>7.018581172451663</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3204,7 +3204,7 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H34" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.338488358459</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T34" t="n">
         <v>217.4819944627618</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T35" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U35" t="n">
         <v>250.9088959876463</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3362,7 +3362,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H36" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3426,10 +3426,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>90.75605730520739</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>23.94516103140631</v>
       </c>
       <c r="S37" t="n">
-        <v>181.338488358459</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T37" t="n">
         <v>217.4819944627618</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127566</v>
       </c>
       <c r="H38" t="n">
         <v>283.5630920045443</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T38" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U38" t="n">
         <v>250.9088959876463</v>
@@ -3599,7 +3599,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H39" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3663,22 +3663,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>23.94516103140631</v>
       </c>
       <c r="D40" t="n">
-        <v>105.3305177187434</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T40" t="n">
         <v>217.4819944627618</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081882</v>
       </c>
       <c r="T41" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U41" t="n">
         <v>250.9088959876463</v>
@@ -3836,7 +3836,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H42" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3900,13 +3900,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>105.3798824585327</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>3.132302579347652</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.338488358459</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T43" t="n">
         <v>217.4819944627618</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T44" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U44" t="n">
         <v>250.9088959876463</v>
@@ -4073,7 +4073,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H45" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>9.43427371450322</v>
+        <v>81.37259901119562</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S46" t="n">
-        <v>181.338488358459</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T46" t="n">
         <v>217.4819944627618</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>808.0839286340174</v>
+        <v>1584.314837422907</v>
       </c>
       <c r="C2" t="n">
-        <v>439.1214116936057</v>
+        <v>1215.352320482495</v>
       </c>
       <c r="D2" t="n">
-        <v>402.0066065949742</v>
+        <v>857.0866218757444</v>
       </c>
       <c r="E2" t="n">
-        <v>402.0066065949742</v>
+        <v>471.2983692775002</v>
       </c>
       <c r="F2" t="n">
-        <v>395.0611058457707</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2311.057514205145</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W2" t="n">
-        <v>1958.288858935031</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X2" t="n">
-        <v>1584.823100673951</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y2" t="n">
-        <v>1194.683768698139</v>
+        <v>1970.914677487028</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4421,10 +4421,10 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>546.4805193761945</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="C4" t="n">
-        <v>377.5443364482876</v>
+        <v>377.5443364482878</v>
       </c>
       <c r="D4" t="n">
-        <v>227.4276970359519</v>
+        <v>227.4276970359521</v>
       </c>
       <c r="E4" t="n">
-        <v>79.51460345355875</v>
+        <v>79.51460345355898</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>378.1446555862789</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="C5" t="n">
-        <v>74.81188663097703</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="D5" t="n">
-        <v>74.81188663097703</v>
+        <v>135.884402556362</v>
       </c>
       <c r="E5" t="n">
         <v>74.81188663097703</v>
@@ -4570,10 +4570,10 @@
         <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157406</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>1528.349585887292</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X5" t="n">
-        <v>1154.883827626212</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y5" t="n">
-        <v>764.7444956504007</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="6">
@@ -4622,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4667,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>279.3468541648867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>110.4106712369798</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4761,16 +4761,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="X7" t="n">
-        <v>500.1394333084169</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>279.3468541648867</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>802.0401021781393</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C8" t="n">
-        <v>433.0775852377275</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D8" t="n">
-        <v>74.81188663097703</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E8" t="n">
         <v>74.81188663097703</v>
@@ -4807,10 +4807,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="S8" t="n">
-        <v>2636.076575092838</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="T8" t="n">
-        <v>2636.076575092838</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="U8" t="n">
-        <v>2636.076575092838</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="V8" t="n">
-        <v>2305.013687749267</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="W8" t="n">
-        <v>1952.245032479153</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="X8" t="n">
-        <v>1578.779274218073</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="Y8" t="n">
-        <v>1188.639942242261</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>713.4553696737762</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>544.5191867458693</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>394.4025473335336</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>246.4894537511404</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C11" t="n">
         <v>1949.298676890958</v>
@@ -5026,43 +5026,43 @@
         <v>1591.032978284208</v>
       </c>
       <c r="E11" t="n">
-        <v>1205.244725685963</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F11" t="n">
-        <v>794.2588208963559</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G11" t="n">
-        <v>380.2757138127624</v>
+        <v>380.2757138127626</v>
       </c>
       <c r="H11" t="n">
-        <v>93.84834815160703</v>
+        <v>93.8483481516068</v>
       </c>
       <c r="I11" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J11" t="n">
-        <v>373.3442236507199</v>
+        <v>373.3442236507205</v>
       </c>
       <c r="K11" t="n">
-        <v>842.9746074384018</v>
+        <v>842.9746074384032</v>
       </c>
       <c r="L11" t="n">
-        <v>1462.494387944176</v>
+        <v>1462.494387944179</v>
       </c>
       <c r="M11" t="n">
-        <v>2183.498949883214</v>
+        <v>2183.498949883217</v>
       </c>
       <c r="N11" t="n">
-        <v>2971.58344915112</v>
+        <v>2920.783927800325</v>
       </c>
       <c r="O11" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.645964259464</v>
       </c>
       <c r="P11" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946813</v>
       </c>
       <c r="Q11" t="n">
-        <v>4566.333620403613</v>
+        <v>4515.53409905282</v>
       </c>
       <c r="R11" t="n">
         <v>4692.417407580351</v>
@@ -5083,10 +5083,10 @@
         <v>3468.466124132383</v>
       </c>
       <c r="X11" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J12" t="n">
-        <v>241.4963299034529</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="K12" t="n">
-        <v>572.0050724668117</v>
+        <v>572.0050724668126</v>
       </c>
       <c r="L12" t="n">
-        <v>1062.737405310563</v>
+        <v>1062.737405310565</v>
       </c>
       <c r="M12" t="n">
-        <v>1654.75575956269</v>
+        <v>1654.755759562693</v>
       </c>
       <c r="N12" t="n">
-        <v>1903.667562284444</v>
+        <v>1654.755759562693</v>
       </c>
       <c r="O12" t="n">
-        <v>1903.667562284444</v>
+        <v>1903.667562284443</v>
       </c>
       <c r="P12" t="n">
-        <v>2323.25108071052</v>
+        <v>2323.251080710519</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.812354695766</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>676.7441797778398</v>
+        <v>715.8882940911329</v>
       </c>
       <c r="C13" t="n">
-        <v>676.7441797778398</v>
+        <v>555.8655840573316</v>
       </c>
       <c r="D13" t="n">
-        <v>676.7441797778398</v>
+        <v>555.8655840573316</v>
       </c>
       <c r="E13" t="n">
-        <v>549.8252074365081</v>
+        <v>407.9524904749385</v>
       </c>
       <c r="F13" t="n">
-        <v>402.9352599385978</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G13" t="n">
-        <v>235.7210651131766</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H13" t="n">
         <v>93.84834815160703</v>
@@ -5199,52 +5199,52 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J13" t="n">
-        <v>172.8304710411609</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K13" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L13" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948597</v>
       </c>
       <c r="M13" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N13" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931027</v>
       </c>
       <c r="O13" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946057</v>
       </c>
       <c r="P13" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q13" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="R13" t="n">
-        <v>2361.553154294196</v>
+        <v>2361.553154294199</v>
       </c>
       <c r="S13" t="n">
-        <v>2178.382964033126</v>
+        <v>2178.382964033129</v>
       </c>
       <c r="T13" t="n">
-        <v>1958.704181747508</v>
+        <v>1958.704181747511</v>
       </c>
       <c r="U13" t="n">
-        <v>1669.627968062235</v>
+        <v>1669.627968062238</v>
       </c>
       <c r="V13" t="n">
-        <v>1414.943479856348</v>
+        <v>1414.943479856351</v>
       </c>
       <c r="W13" t="n">
-        <v>1125.526309819387</v>
+        <v>1125.52630981939</v>
       </c>
       <c r="X13" t="n">
-        <v>897.5367589213699</v>
+        <v>897.5367589213727</v>
       </c>
       <c r="Y13" t="n">
-        <v>676.7441797778398</v>
+        <v>897.5367589213727</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C14" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D14" t="n">
-        <v>1591.032978284207</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E14" t="n">
-        <v>1205.244725685963</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F14" t="n">
-        <v>794.2588208963555</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G14" t="n">
         <v>380.2757138127629</v>
@@ -5278,28 +5278,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J14" t="n">
-        <v>373.3442236507199</v>
+        <v>424.1437450015126</v>
       </c>
       <c r="K14" t="n">
-        <v>842.9746074384018</v>
+        <v>893.7741287891952</v>
       </c>
       <c r="L14" t="n">
-        <v>1462.494387944176</v>
+        <v>1513.293909294971</v>
       </c>
       <c r="M14" t="n">
-        <v>2183.498949883214</v>
+        <v>2234.298471234009</v>
       </c>
       <c r="N14" t="n">
-        <v>2920.78392780032</v>
+        <v>2971.583449151116</v>
       </c>
       <c r="O14" t="n">
-        <v>3654.445485610258</v>
+        <v>3654.445485610256</v>
       </c>
       <c r="P14" t="n">
-        <v>4202.751434297606</v>
+        <v>4202.751434297605</v>
       </c>
       <c r="Q14" t="n">
-        <v>4566.333620403613</v>
+        <v>4566.333620403612</v>
       </c>
       <c r="R14" t="n">
         <v>4692.417407580351</v>
@@ -5311,19 +5311,19 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U14" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V14" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W14" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X14" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J15" t="n">
-        <v>241.4963299034529</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="K15" t="n">
-        <v>241.4963299034529</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="L15" t="n">
-        <v>241.4963299034529</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="M15" t="n">
-        <v>734.6951238849133</v>
+        <v>833.5146841555818</v>
       </c>
       <c r="N15" t="n">
-        <v>1356.791087284249</v>
+        <v>1455.610647554919</v>
       </c>
       <c r="O15" t="n">
-        <v>1903.667562284444</v>
+        <v>2002.487122555114</v>
       </c>
       <c r="P15" t="n">
-        <v>2323.25108071052</v>
+        <v>2422.070640981191</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.812354695766</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>495.0957149476001</v>
+        <v>678.2659052086724</v>
       </c>
       <c r="C16" t="n">
-        <v>326.1595320196932</v>
+        <v>509.3297222807655</v>
       </c>
       <c r="D16" t="n">
-        <v>326.1595320196932</v>
+        <v>359.2130828684298</v>
       </c>
       <c r="E16" t="n">
-        <v>326.1595320196932</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="F16" t="n">
-        <v>326.1595320196932</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G16" t="n">
-        <v>158.945337194272</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H16" t="n">
         <v>93.84834815160703</v>
@@ -5436,52 +5436,52 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J16" t="n">
-        <v>172.8304710411609</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K16" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L16" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948597</v>
       </c>
       <c r="M16" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N16" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931027</v>
       </c>
       <c r="O16" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946057</v>
       </c>
       <c r="P16" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q16" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="R16" t="n">
-        <v>2361.553154294196</v>
+        <v>2361.553154294199</v>
       </c>
       <c r="S16" t="n">
-        <v>2178.382964033126</v>
+        <v>2361.553154294199</v>
       </c>
       <c r="T16" t="n">
-        <v>1958.704181747508</v>
+        <v>2141.87437200858</v>
       </c>
       <c r="U16" t="n">
-        <v>1669.627968062235</v>
+        <v>1852.798158323307</v>
       </c>
       <c r="V16" t="n">
-        <v>1414.943479856348</v>
+        <v>1598.11367011742</v>
       </c>
       <c r="W16" t="n">
-        <v>1125.526309819387</v>
+        <v>1308.69650008046</v>
       </c>
       <c r="X16" t="n">
-        <v>897.5367589213699</v>
+        <v>1080.706949182442</v>
       </c>
       <c r="Y16" t="n">
-        <v>676.7441797778398</v>
+        <v>859.9143700389121</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C17" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D17" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284207</v>
       </c>
       <c r="E17" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685963</v>
       </c>
       <c r="F17" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963555</v>
       </c>
       <c r="G17" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127619</v>
       </c>
       <c r="H17" t="n">
         <v>93.84834815160703</v>
@@ -5515,28 +5515,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J17" t="n">
-        <v>424.14374500152</v>
+        <v>424.1437450015126</v>
       </c>
       <c r="K17" t="n">
-        <v>893.7741287892018</v>
+        <v>893.7741287891952</v>
       </c>
       <c r="L17" t="n">
-        <v>1513.293909294976</v>
+        <v>1513.293909294971</v>
       </c>
       <c r="M17" t="n">
-        <v>2234.298471234014</v>
+        <v>2234.298471234009</v>
       </c>
       <c r="N17" t="n">
-        <v>2971.58344915112</v>
+        <v>2971.583449151116</v>
       </c>
       <c r="O17" t="n">
-        <v>3654.445485610258</v>
+        <v>3654.445485610256</v>
       </c>
       <c r="P17" t="n">
-        <v>4202.751434297606</v>
+        <v>4202.751434297605</v>
       </c>
       <c r="Q17" t="n">
-        <v>4566.333620403613</v>
+        <v>4566.333620403612</v>
       </c>
       <c r="R17" t="n">
         <v>4692.417407580351</v>
@@ -5548,19 +5548,19 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U17" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V17" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W17" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X17" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J18" t="n">
-        <v>241.4963299034529</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="K18" t="n">
-        <v>572.0050724668117</v>
+        <v>572.0050724668126</v>
       </c>
       <c r="L18" t="n">
-        <v>1062.737405310563</v>
+        <v>1062.737405310565</v>
       </c>
       <c r="M18" t="n">
-        <v>1654.75575956269</v>
+        <v>1356.791087284247</v>
       </c>
       <c r="N18" t="n">
-        <v>2276.851722962027</v>
+        <v>1356.791087284247</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.812354695766</v>
+        <v>1903.667562284443</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.812354695766</v>
+        <v>2323.251080710519</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.812354695766</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>495.0957149476001</v>
+        <v>495.0957149476028</v>
       </c>
       <c r="C19" t="n">
-        <v>326.1595320196932</v>
+        <v>495.0957149476028</v>
       </c>
       <c r="D19" t="n">
-        <v>326.1595320196932</v>
+        <v>495.0957149476028</v>
       </c>
       <c r="E19" t="n">
-        <v>326.1595320196932</v>
+        <v>407.9524904749385</v>
       </c>
       <c r="F19" t="n">
-        <v>326.1595320196932</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G19" t="n">
-        <v>158.945337194272</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H19" t="n">
-        <v>158.945337194272</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I19" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J19" t="n">
-        <v>172.8304710411609</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K19" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L19" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948597</v>
       </c>
       <c r="M19" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N19" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931027</v>
       </c>
       <c r="O19" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946057</v>
       </c>
       <c r="P19" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q19" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="R19" t="n">
-        <v>2361.553154294196</v>
+        <v>2361.553154294199</v>
       </c>
       <c r="S19" t="n">
-        <v>2178.382964033126</v>
+        <v>2178.382964033129</v>
       </c>
       <c r="T19" t="n">
-        <v>1958.704181747508</v>
+        <v>1958.704181747511</v>
       </c>
       <c r="U19" t="n">
-        <v>1669.627968062235</v>
+        <v>1669.627968062238</v>
       </c>
       <c r="V19" t="n">
-        <v>1414.943479856348</v>
+        <v>1414.943479856351</v>
       </c>
       <c r="W19" t="n">
-        <v>1125.526309819387</v>
+        <v>1125.52630981939</v>
       </c>
       <c r="X19" t="n">
-        <v>897.5367589213699</v>
+        <v>897.5367589213727</v>
       </c>
       <c r="Y19" t="n">
-        <v>676.7441797778398</v>
+        <v>676.7441797778425</v>
       </c>
     </row>
     <row r="20">
@@ -5734,46 +5734,46 @@
         <v>1949.298676890958</v>
       </c>
       <c r="D20" t="n">
-        <v>1591.032978284207</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E20" t="n">
-        <v>1205.244725685963</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F20" t="n">
-        <v>794.2588208963555</v>
+        <v>794.258820896356</v>
       </c>
       <c r="G20" t="n">
-        <v>380.2757138127619</v>
+        <v>380.2757138127625</v>
       </c>
       <c r="H20" t="n">
-        <v>93.84834815160703</v>
+        <v>93.8483481516068</v>
       </c>
       <c r="I20" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J20" t="n">
-        <v>373.3442236507199</v>
+        <v>373.3442236507205</v>
       </c>
       <c r="K20" t="n">
-        <v>842.9746074384018</v>
+        <v>842.9746074384032</v>
       </c>
       <c r="L20" t="n">
-        <v>1462.494387944176</v>
+        <v>1462.494387944179</v>
       </c>
       <c r="M20" t="n">
-        <v>2183.498949883214</v>
+        <v>2183.498949883217</v>
       </c>
       <c r="N20" t="n">
-        <v>2920.78392780032</v>
+        <v>2920.783927800325</v>
       </c>
       <c r="O20" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.645964259464</v>
       </c>
       <c r="P20" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946813</v>
       </c>
       <c r="Q20" t="n">
-        <v>4566.333620403613</v>
+        <v>4515.53409905282</v>
       </c>
       <c r="R20" t="n">
         <v>4692.417407580351</v>
@@ -5831,22 +5831,22 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J21" t="n">
-        <v>241.4963299034529</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="K21" t="n">
-        <v>241.4963299034529</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="L21" t="n">
-        <v>732.2286627472042</v>
+        <v>373.2380436180293</v>
       </c>
       <c r="M21" t="n">
-        <v>1324.247016999332</v>
+        <v>965.2563978701578</v>
       </c>
       <c r="N21" t="n">
-        <v>1946.342980398668</v>
+        <v>1587.352361269495</v>
       </c>
       <c r="O21" t="n">
-        <v>2493.219455398862</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P21" t="n">
         <v>2553.812354695766</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>495.0957149476001</v>
+        <v>715.8882940911329</v>
       </c>
       <c r="C22" t="n">
-        <v>326.1595320196932</v>
+        <v>546.952111163226</v>
       </c>
       <c r="D22" t="n">
-        <v>326.1595320196932</v>
+        <v>396.8354717508903</v>
       </c>
       <c r="E22" t="n">
-        <v>326.1595320196932</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="F22" t="n">
-        <v>326.1595320196932</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G22" t="n">
-        <v>318.3519507135898</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H22" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I22" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J22" t="n">
-        <v>172.8304710411609</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K22" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L22" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948597</v>
       </c>
       <c r="M22" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N22" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931027</v>
       </c>
       <c r="O22" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946057</v>
       </c>
       <c r="P22" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q22" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="R22" t="n">
-        <v>2361.553154294196</v>
+        <v>2361.553154294199</v>
       </c>
       <c r="S22" t="n">
-        <v>2178.382964033126</v>
+        <v>2178.382964033129</v>
       </c>
       <c r="T22" t="n">
-        <v>1958.704181747508</v>
+        <v>1958.704181747511</v>
       </c>
       <c r="U22" t="n">
-        <v>1669.627968062235</v>
+        <v>1669.627968062238</v>
       </c>
       <c r="V22" t="n">
-        <v>1414.943479856348</v>
+        <v>1414.943479856351</v>
       </c>
       <c r="W22" t="n">
-        <v>1125.526309819387</v>
+        <v>1125.52630981939</v>
       </c>
       <c r="X22" t="n">
-        <v>897.5367589213699</v>
+        <v>897.5367589213727</v>
       </c>
       <c r="Y22" t="n">
-        <v>676.7441797778398</v>
+        <v>897.5367589213727</v>
       </c>
     </row>
     <row r="23">
@@ -5983,40 +5983,40 @@
         <v>380.2757138127627</v>
       </c>
       <c r="H23" t="n">
-        <v>93.84834815160684</v>
+        <v>93.84834815160683</v>
       </c>
       <c r="I23" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J23" t="n">
-        <v>373.3442236507199</v>
+        <v>373.3442236507205</v>
       </c>
       <c r="K23" t="n">
-        <v>842.9746074384018</v>
+        <v>842.9746074384032</v>
       </c>
       <c r="L23" t="n">
-        <v>1462.494387944176</v>
+        <v>1462.494387944179</v>
       </c>
       <c r="M23" t="n">
-        <v>2183.498949883214</v>
+        <v>2183.498949883217</v>
       </c>
       <c r="N23" t="n">
-        <v>2920.78392780032</v>
+        <v>2920.783927800325</v>
       </c>
       <c r="O23" t="n">
-        <v>3603.645964259458</v>
+        <v>3603.645964259464</v>
       </c>
       <c r="P23" t="n">
-        <v>4151.951912946806</v>
+        <v>4151.951912946813</v>
       </c>
       <c r="Q23" t="n">
-        <v>4515.534099052813</v>
+        <v>4515.53409905282</v>
       </c>
       <c r="R23" t="n">
         <v>4692.417407580351</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T23" t="n">
         <v>4405.740996026519</v>
@@ -6068,25 +6068,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J24" t="n">
-        <v>241.4963299034529</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="K24" t="n">
-        <v>572.0050724668117</v>
+        <v>572.0050724668126</v>
       </c>
       <c r="L24" t="n">
-        <v>1062.737405310563</v>
+        <v>1062.737405310565</v>
       </c>
       <c r="M24" t="n">
-        <v>1654.75575956269</v>
+        <v>1654.755759562693</v>
       </c>
       <c r="N24" t="n">
-        <v>2276.851722962027</v>
+        <v>1654.755759562693</v>
       </c>
       <c r="O24" t="n">
-        <v>2323.25108071052</v>
+        <v>2201.632234562888</v>
       </c>
       <c r="P24" t="n">
-        <v>2323.25108071052</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.812354695766</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>654.5023284669179</v>
+        <v>495.0957149476028</v>
       </c>
       <c r="C25" t="n">
-        <v>485.566145539011</v>
+        <v>326.1595320196959</v>
       </c>
       <c r="D25" t="n">
-        <v>485.566145539011</v>
+        <v>176.0428926073602</v>
       </c>
       <c r="E25" t="n">
-        <v>485.566145539011</v>
+        <v>176.0428926073602</v>
       </c>
       <c r="F25" t="n">
-        <v>485.566145539011</v>
+        <v>176.0428926073602</v>
       </c>
       <c r="G25" t="n">
-        <v>318.3519507135898</v>
+        <v>176.0428926073602</v>
       </c>
       <c r="H25" t="n">
-        <v>176.4792337520202</v>
+        <v>176.0428926073602</v>
       </c>
       <c r="I25" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J25" t="n">
-        <v>172.8304710411609</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K25" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L25" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948597</v>
       </c>
       <c r="M25" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N25" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931027</v>
       </c>
       <c r="O25" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946057</v>
       </c>
       <c r="P25" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q25" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="R25" t="n">
-        <v>2361.553154294196</v>
+        <v>2361.553154294199</v>
       </c>
       <c r="S25" t="n">
-        <v>2178.382964033126</v>
+        <v>2178.382964033129</v>
       </c>
       <c r="T25" t="n">
-        <v>2118.110795266826</v>
+        <v>1958.704181747511</v>
       </c>
       <c r="U25" t="n">
-        <v>1829.034581581553</v>
+        <v>1669.627968062238</v>
       </c>
       <c r="V25" t="n">
-        <v>1574.350093375666</v>
+        <v>1414.943479856351</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.932923338705</v>
+        <v>1125.52630981939</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.943372440688</v>
+        <v>897.5367589213727</v>
       </c>
       <c r="Y25" t="n">
-        <v>836.1507932971576</v>
+        <v>676.7441797778425</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C26" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D26" t="n">
         <v>1591.032978284208</v>
@@ -6214,64 +6214,64 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F26" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G26" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H26" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160683</v>
       </c>
       <c r="I26" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J26" t="n">
-        <v>373.3442236507199</v>
+        <v>373.3442236507206</v>
       </c>
       <c r="K26" t="n">
-        <v>842.9746074384018</v>
+        <v>842.9746074384032</v>
       </c>
       <c r="L26" t="n">
-        <v>1462.494387944176</v>
+        <v>1462.494387944179</v>
       </c>
       <c r="M26" t="n">
-        <v>2183.498949883214</v>
+        <v>2183.498949883217</v>
       </c>
       <c r="N26" t="n">
-        <v>2920.78392780032</v>
+        <v>2920.783927800325</v>
       </c>
       <c r="O26" t="n">
-        <v>3603.645964259458</v>
+        <v>3603.645964259464</v>
       </c>
       <c r="P26" t="n">
-        <v>4151.951912946806</v>
+        <v>4151.951912946813</v>
       </c>
       <c r="Q26" t="n">
-        <v>4515.534099052813</v>
+        <v>4515.53409905282</v>
       </c>
       <c r="R26" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T26" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U26" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V26" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W26" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X26" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="27">
@@ -6299,31 +6299,31 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H27" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I27" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J27" t="n">
-        <v>241.4963299034529</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="K27" t="n">
-        <v>241.4963299034529</v>
+        <v>474.5240650264058</v>
       </c>
       <c r="L27" t="n">
-        <v>241.4963299034529</v>
+        <v>965.2563978701578</v>
       </c>
       <c r="M27" t="n">
-        <v>734.6951238849133</v>
+        <v>965.2563978701578</v>
       </c>
       <c r="N27" t="n">
-        <v>1356.791087284249</v>
+        <v>1587.352361269495</v>
       </c>
       <c r="O27" t="n">
-        <v>1903.667562284444</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P27" t="n">
-        <v>2323.25108071052</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.812354695766</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1099.422008959557</v>
+        <v>562.9550599891011</v>
       </c>
       <c r="C28" t="n">
-        <v>930.4858260316502</v>
+        <v>538.7680286442462</v>
       </c>
       <c r="D28" t="n">
-        <v>780.3691866193144</v>
+        <v>388.6513892319105</v>
       </c>
       <c r="E28" t="n">
-        <v>632.4560930369213</v>
+        <v>240.7382956495174</v>
       </c>
       <c r="F28" t="n">
-        <v>485.566145539011</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="G28" t="n">
-        <v>318.3519507135898</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="H28" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I28" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J28" t="n">
-        <v>172.8304710411609</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K28" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L28" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948597</v>
       </c>
       <c r="M28" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N28" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931027</v>
       </c>
       <c r="O28" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946057</v>
       </c>
       <c r="P28" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q28" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="R28" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="S28" t="n">
-        <v>2429.412499335695</v>
+        <v>2246.242309074627</v>
       </c>
       <c r="T28" t="n">
-        <v>2429.412499335695</v>
+        <v>2026.563526789009</v>
       </c>
       <c r="U28" t="n">
-        <v>2273.954262074192</v>
+        <v>1737.487313103736</v>
       </c>
       <c r="V28" t="n">
-        <v>2019.269773868305</v>
+        <v>1482.802824897849</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.852603831344</v>
+        <v>1193.385654860888</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.863052933327</v>
+        <v>965.3961039628709</v>
       </c>
       <c r="Y28" t="n">
-        <v>1281.070473789797</v>
+        <v>744.6035248193408</v>
       </c>
     </row>
     <row r="29">
@@ -6457,28 +6457,28 @@
         <v>380.2757138127627</v>
       </c>
       <c r="H29" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160681</v>
       </c>
       <c r="I29" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J29" t="n">
-        <v>373.3442236507199</v>
+        <v>424.1437450015135</v>
       </c>
       <c r="K29" t="n">
-        <v>893.7741287892018</v>
+        <v>893.7741287891961</v>
       </c>
       <c r="L29" t="n">
-        <v>1513.293909294976</v>
+        <v>1513.293909294972</v>
       </c>
       <c r="M29" t="n">
-        <v>2234.298471234014</v>
+        <v>2234.29847123401</v>
       </c>
       <c r="N29" t="n">
-        <v>2971.58344915112</v>
+        <v>2971.583449151117</v>
       </c>
       <c r="O29" t="n">
-        <v>3654.445485610258</v>
+        <v>3654.445485610257</v>
       </c>
       <c r="P29" t="n">
         <v>4202.751434297606</v>
@@ -6487,10 +6487,10 @@
         <v>4566.333620403613</v>
       </c>
       <c r="R29" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T29" t="n">
         <v>4405.740996026519</v>
@@ -6536,31 +6536,31 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H30" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I30" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J30" t="n">
-        <v>241.4963299034529</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="K30" t="n">
-        <v>302.0892292003572</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="L30" t="n">
-        <v>792.8215620441084</v>
+        <v>142.6767696327819</v>
       </c>
       <c r="M30" t="n">
-        <v>1384.839916296236</v>
+        <v>734.6951238849103</v>
       </c>
       <c r="N30" t="n">
-        <v>2006.935879695572</v>
+        <v>1356.791087284247</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.812354695766</v>
+        <v>1903.667562284443</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.812354695766</v>
+        <v>2323.251080710519</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.812354695766</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>852.3722300260596</v>
+        <v>899.0584843522025</v>
       </c>
       <c r="C31" t="n">
-        <v>683.4360470981527</v>
+        <v>730.1223014242956</v>
       </c>
       <c r="D31" t="n">
-        <v>533.3194076858169</v>
+        <v>580.0056620119599</v>
       </c>
       <c r="E31" t="n">
-        <v>533.3194076858169</v>
+        <v>432.0925684295668</v>
       </c>
       <c r="F31" t="n">
-        <v>386.4294601879066</v>
+        <v>285.2026209316564</v>
       </c>
       <c r="G31" t="n">
-        <v>318.3519507135898</v>
+        <v>117.9884261062352</v>
       </c>
       <c r="H31" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I31" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J31" t="n">
-        <v>172.8304710411609</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K31" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L31" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948597</v>
       </c>
       <c r="M31" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N31" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931027</v>
       </c>
       <c r="O31" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946057</v>
       </c>
       <c r="P31" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q31" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="R31" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294199</v>
       </c>
       <c r="S31" t="n">
-        <v>2246.242309074625</v>
+        <v>2361.553154294199</v>
       </c>
       <c r="T31" t="n">
-        <v>2026.563526789007</v>
+        <v>2141.87437200858</v>
       </c>
       <c r="U31" t="n">
-        <v>1737.487313103734</v>
+        <v>1852.798158323307</v>
       </c>
       <c r="V31" t="n">
-        <v>1482.802824897847</v>
+        <v>1598.11367011742</v>
       </c>
       <c r="W31" t="n">
-        <v>1482.802824897847</v>
+        <v>1308.69650008046</v>
       </c>
       <c r="X31" t="n">
-        <v>1254.813273999829</v>
+        <v>1080.706949182442</v>
       </c>
       <c r="Y31" t="n">
-        <v>1034.020694856299</v>
+        <v>1080.706949182442</v>
       </c>
     </row>
     <row r="32">
@@ -6697,37 +6697,37 @@
         <v>93.84834815160684</v>
       </c>
       <c r="I32" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J32" t="n">
-        <v>373.3442236507199</v>
+        <v>373.3442236507206</v>
       </c>
       <c r="K32" t="n">
-        <v>842.9746074384018</v>
+        <v>842.9746074384032</v>
       </c>
       <c r="L32" t="n">
-        <v>1462.494387944176</v>
+        <v>1462.494387944179</v>
       </c>
       <c r="M32" t="n">
-        <v>2183.498949883214</v>
+        <v>2183.498949883217</v>
       </c>
       <c r="N32" t="n">
-        <v>2920.78392780032</v>
+        <v>2920.783927800325</v>
       </c>
       <c r="O32" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.645964259464</v>
       </c>
       <c r="P32" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946813</v>
       </c>
       <c r="Q32" t="n">
-        <v>4566.333620403613</v>
+        <v>4515.53409905282</v>
       </c>
       <c r="R32" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T32" t="n">
         <v>4405.740996026519</v>
@@ -6773,31 +6773,31 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H33" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I33" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J33" t="n">
-        <v>241.4963299034529</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="K33" t="n">
-        <v>572.0050724668117</v>
+        <v>572.0050724668126</v>
       </c>
       <c r="L33" t="n">
-        <v>1062.737405310563</v>
+        <v>1062.737405310565</v>
       </c>
       <c r="M33" t="n">
-        <v>1654.75575956269</v>
+        <v>1654.755759562693</v>
       </c>
       <c r="N33" t="n">
-        <v>1654.75575956269</v>
+        <v>1776.374605710324</v>
       </c>
       <c r="O33" t="n">
-        <v>2201.632234562885</v>
+        <v>2323.251080710519</v>
       </c>
       <c r="P33" t="n">
-        <v>2323.25108071052</v>
+        <v>2323.251080710519</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.812354695766</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>744.6035248193385</v>
+        <v>562.9550599891011</v>
       </c>
       <c r="C34" t="n">
-        <v>744.6035248193385</v>
+        <v>562.9550599891011</v>
       </c>
       <c r="D34" t="n">
-        <v>697.7383010189012</v>
+        <v>555.8655840573317</v>
       </c>
       <c r="E34" t="n">
-        <v>549.8252074365081</v>
+        <v>407.9524904749386</v>
       </c>
       <c r="F34" t="n">
-        <v>402.9352599385978</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G34" t="n">
-        <v>235.7210651131766</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="H34" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I34" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J34" t="n">
-        <v>172.8304710411609</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K34" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L34" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948597</v>
       </c>
       <c r="M34" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N34" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931027</v>
       </c>
       <c r="O34" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946057</v>
       </c>
       <c r="P34" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q34" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="R34" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="S34" t="n">
-        <v>2246.242309074625</v>
+        <v>2246.242309074627</v>
       </c>
       <c r="T34" t="n">
-        <v>2026.563526789007</v>
+        <v>2026.563526789009</v>
       </c>
       <c r="U34" t="n">
-        <v>1737.487313103734</v>
+        <v>1737.487313103736</v>
       </c>
       <c r="V34" t="n">
-        <v>1482.802824897847</v>
+        <v>1482.802824897849</v>
       </c>
       <c r="W34" t="n">
-        <v>1193.385654860886</v>
+        <v>1193.385654860888</v>
       </c>
       <c r="X34" t="n">
-        <v>965.3961039628687</v>
+        <v>965.3961039628709</v>
       </c>
       <c r="Y34" t="n">
-        <v>744.6035248193385</v>
+        <v>744.6035248193408</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C35" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D35" t="n">
         <v>1591.032978284208</v>
@@ -6925,40 +6925,40 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F35" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G35" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H35" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I35" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J35" t="n">
-        <v>424.14374500152</v>
+        <v>373.3442236507205</v>
       </c>
       <c r="K35" t="n">
-        <v>893.7741287892018</v>
+        <v>842.9746074384032</v>
       </c>
       <c r="L35" t="n">
-        <v>1513.293909294976</v>
+        <v>1462.494387944179</v>
       </c>
       <c r="M35" t="n">
-        <v>2234.298471234014</v>
+        <v>2183.498949883217</v>
       </c>
       <c r="N35" t="n">
-        <v>2971.58344915112</v>
+        <v>2920.783927800325</v>
       </c>
       <c r="O35" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.645964259464</v>
       </c>
       <c r="P35" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946813</v>
       </c>
       <c r="Q35" t="n">
-        <v>4566.333620403613</v>
+        <v>4515.53409905282</v>
       </c>
       <c r="R35" t="n">
         <v>4692.417407580351</v>
@@ -6982,7 +6982,7 @@
         <v>3095.000365871303</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="36">
@@ -7016,22 +7016,22 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J36" t="n">
-        <v>241.4963299034529</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="K36" t="n">
-        <v>572.0050724668117</v>
+        <v>572.0050724668126</v>
       </c>
       <c r="L36" t="n">
-        <v>1062.737405310563</v>
+        <v>1062.737405310565</v>
       </c>
       <c r="M36" t="n">
-        <v>1654.75575956269</v>
+        <v>1654.755759562693</v>
       </c>
       <c r="N36" t="n">
-        <v>2276.851722962027</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.812354695766</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P36" t="n">
         <v>2553.812354695766</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>562.9550599890988</v>
+        <v>538.7680286442462</v>
       </c>
       <c r="C37" t="n">
-        <v>471.2822748323237</v>
+        <v>538.7680286442462</v>
       </c>
       <c r="D37" t="n">
-        <v>471.2822748323237</v>
+        <v>388.6513892319105</v>
       </c>
       <c r="E37" t="n">
-        <v>323.3691812499305</v>
+        <v>240.7382956495174</v>
       </c>
       <c r="F37" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="G37" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H37" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I37" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J37" t="n">
-        <v>172.8304710411609</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K37" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L37" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948597</v>
       </c>
       <c r="M37" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N37" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931027</v>
       </c>
       <c r="O37" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946057</v>
       </c>
       <c r="P37" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q37" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="R37" t="n">
-        <v>2429.412499335695</v>
+        <v>2405.225467990842</v>
       </c>
       <c r="S37" t="n">
-        <v>2246.242309074625</v>
+        <v>2222.055277729772</v>
       </c>
       <c r="T37" t="n">
-        <v>2026.563526789007</v>
+        <v>2002.376495444154</v>
       </c>
       <c r="U37" t="n">
-        <v>1737.487313103734</v>
+        <v>1713.300281758881</v>
       </c>
       <c r="V37" t="n">
-        <v>1482.802824897847</v>
+        <v>1458.615793552994</v>
       </c>
       <c r="W37" t="n">
-        <v>1193.385654860886</v>
+        <v>1169.198623516033</v>
       </c>
       <c r="X37" t="n">
-        <v>965.3961039628687</v>
+        <v>941.2090726180161</v>
       </c>
       <c r="Y37" t="n">
-        <v>744.6035248193385</v>
+        <v>720.4164934744859</v>
       </c>
     </row>
     <row r="38">
@@ -7153,16 +7153,16 @@
         <v>2318.261193831369</v>
       </c>
       <c r="C38" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D38" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284207</v>
       </c>
       <c r="E38" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685963</v>
       </c>
       <c r="F38" t="n">
-        <v>794.2588208963564</v>
+        <v>794.2588208963555</v>
       </c>
       <c r="G38" t="n">
         <v>380.2757138127629</v>
@@ -7174,28 +7174,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J38" t="n">
-        <v>424.14374500152</v>
+        <v>373.3442236507205</v>
       </c>
       <c r="K38" t="n">
-        <v>893.7741287892018</v>
+        <v>842.9746074384032</v>
       </c>
       <c r="L38" t="n">
-        <v>1513.293909294976</v>
+        <v>1462.494387944179</v>
       </c>
       <c r="M38" t="n">
-        <v>2234.298471234014</v>
+        <v>2183.498949883217</v>
       </c>
       <c r="N38" t="n">
-        <v>2971.58344915112</v>
+        <v>2920.783927800325</v>
       </c>
       <c r="O38" t="n">
-        <v>3654.445485610258</v>
+        <v>3654.445485610256</v>
       </c>
       <c r="P38" t="n">
-        <v>4202.751434297606</v>
+        <v>4202.751434297605</v>
       </c>
       <c r="Q38" t="n">
-        <v>4566.333620403613</v>
+        <v>4566.333620403612</v>
       </c>
       <c r="R38" t="n">
         <v>4692.417407580351</v>
@@ -7253,25 +7253,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J39" t="n">
-        <v>241.4963299034529</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="K39" t="n">
-        <v>572.0050724668117</v>
+        <v>572.0050724668126</v>
       </c>
       <c r="L39" t="n">
-        <v>1062.737405310563</v>
+        <v>1062.737405310565</v>
       </c>
       <c r="M39" t="n">
-        <v>1654.75575956269</v>
+        <v>1062.737405310565</v>
       </c>
       <c r="N39" t="n">
-        <v>1776.374605710325</v>
+        <v>1356.791087284247</v>
       </c>
       <c r="O39" t="n">
-        <v>2323.25108071052</v>
+        <v>1903.667562284443</v>
       </c>
       <c r="P39" t="n">
-        <v>2323.25108071052</v>
+        <v>2323.251080710519</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.812354695766</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>678.2659052086697</v>
+        <v>562.9550599891011</v>
       </c>
       <c r="C40" t="n">
-        <v>509.3297222807628</v>
+        <v>538.7680286442462</v>
       </c>
       <c r="D40" t="n">
-        <v>402.9352599385978</v>
+        <v>388.6513892319105</v>
       </c>
       <c r="E40" t="n">
-        <v>402.9352599385978</v>
+        <v>240.7382956495174</v>
       </c>
       <c r="F40" t="n">
-        <v>402.9352599385978</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="G40" t="n">
-        <v>235.7210651131766</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H40" t="n">
         <v>93.84834815160703</v>
@@ -7332,52 +7332,52 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J40" t="n">
-        <v>172.8304710411609</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K40" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L40" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948597</v>
       </c>
       <c r="M40" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N40" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931027</v>
       </c>
       <c r="O40" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946057</v>
       </c>
       <c r="P40" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q40" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="R40" t="n">
-        <v>2361.553154294196</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="S40" t="n">
-        <v>2361.553154294196</v>
+        <v>2246.242309074627</v>
       </c>
       <c r="T40" t="n">
-        <v>2141.874372008578</v>
+        <v>2026.563526789009</v>
       </c>
       <c r="U40" t="n">
-        <v>1852.798158323305</v>
+        <v>1737.487313103736</v>
       </c>
       <c r="V40" t="n">
-        <v>1598.113670117418</v>
+        <v>1482.802824897849</v>
       </c>
       <c r="W40" t="n">
-        <v>1308.696500080457</v>
+        <v>1193.385654860888</v>
       </c>
       <c r="X40" t="n">
-        <v>1080.70694918244</v>
+        <v>965.3961039628709</v>
       </c>
       <c r="Y40" t="n">
-        <v>859.9143700389094</v>
+        <v>744.6035248193408</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C41" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D41" t="n">
         <v>1591.032978284208</v>
@@ -7399,64 +7399,64 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F41" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G41" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H41" t="n">
-        <v>93.84834815160684</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I41" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J41" t="n">
-        <v>373.3442236507199</v>
+        <v>373.3442236507205</v>
       </c>
       <c r="K41" t="n">
-        <v>842.9746074384018</v>
+        <v>842.9746074384032</v>
       </c>
       <c r="L41" t="n">
-        <v>1462.494387944176</v>
+        <v>1462.494387944179</v>
       </c>
       <c r="M41" t="n">
-        <v>2183.498949883214</v>
+        <v>2183.498949883217</v>
       </c>
       <c r="N41" t="n">
-        <v>2920.78392780032</v>
+        <v>2920.783927800325</v>
       </c>
       <c r="O41" t="n">
-        <v>3603.645964259458</v>
+        <v>3603.645964259464</v>
       </c>
       <c r="P41" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946813</v>
       </c>
       <c r="Q41" t="n">
-        <v>4566.333620403613</v>
+        <v>4515.53409905282</v>
       </c>
       <c r="R41" t="n">
         <v>4692.417407580351</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T41" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U41" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V41" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W41" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X41" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J42" t="n">
-        <v>241.4963299034529</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="K42" t="n">
-        <v>241.4963299034529</v>
+        <v>572.0050724668126</v>
       </c>
       <c r="L42" t="n">
-        <v>241.4963299034529</v>
+        <v>1062.737405310565</v>
       </c>
       <c r="M42" t="n">
-        <v>734.6951238849133</v>
+        <v>1654.755759562693</v>
       </c>
       <c r="N42" t="n">
-        <v>1356.791087284249</v>
+        <v>1654.755759562693</v>
       </c>
       <c r="O42" t="n">
-        <v>1903.667562284444</v>
+        <v>1903.667562284443</v>
       </c>
       <c r="P42" t="n">
-        <v>2323.25108071052</v>
+        <v>2323.251080710519</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.812354695766</v>
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>495.0957149476001</v>
+        <v>562.9550599891011</v>
       </c>
       <c r="C43" t="n">
-        <v>495.0957149476001</v>
+        <v>394.0188770611942</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6513892319105</v>
+        <v>243.9022376488585</v>
       </c>
       <c r="E43" t="n">
         <v>240.7382956495174</v>
@@ -7569,52 +7569,52 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J43" t="n">
-        <v>172.8304710411609</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K43" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L43" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948597</v>
       </c>
       <c r="M43" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N43" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931027</v>
       </c>
       <c r="O43" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946057</v>
       </c>
       <c r="P43" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q43" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="R43" t="n">
-        <v>2361.553154294196</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="S43" t="n">
-        <v>2178.382964033126</v>
+        <v>2246.242309074627</v>
       </c>
       <c r="T43" t="n">
-        <v>1958.704181747508</v>
+        <v>2026.563526789009</v>
       </c>
       <c r="U43" t="n">
-        <v>1669.627968062235</v>
+        <v>1737.487313103736</v>
       </c>
       <c r="V43" t="n">
-        <v>1414.943479856348</v>
+        <v>1482.802824897849</v>
       </c>
       <c r="W43" t="n">
-        <v>1125.526309819387</v>
+        <v>1193.385654860888</v>
       </c>
       <c r="X43" t="n">
-        <v>897.5367589213699</v>
+        <v>965.3961039628709</v>
       </c>
       <c r="Y43" t="n">
-        <v>676.7441797778398</v>
+        <v>744.6035248193408</v>
       </c>
     </row>
     <row r="44">
@@ -7636,40 +7636,40 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F44" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G44" t="n">
         <v>380.2757138127627</v>
       </c>
       <c r="H44" t="n">
-        <v>93.84834815160684</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I44" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J44" t="n">
-        <v>373.3442236507199</v>
+        <v>373.3442236507205</v>
       </c>
       <c r="K44" t="n">
-        <v>893.7741287892018</v>
+        <v>842.9746074384032</v>
       </c>
       <c r="L44" t="n">
-        <v>1513.293909294976</v>
+        <v>1513.293909294971</v>
       </c>
       <c r="M44" t="n">
-        <v>2234.298471234014</v>
+        <v>2234.298471234009</v>
       </c>
       <c r="N44" t="n">
-        <v>2971.58344915112</v>
+        <v>2971.583449151116</v>
       </c>
       <c r="O44" t="n">
-        <v>3654.445485610258</v>
+        <v>3654.445485610256</v>
       </c>
       <c r="P44" t="n">
-        <v>4202.751434297606</v>
+        <v>4202.751434297605</v>
       </c>
       <c r="Q44" t="n">
-        <v>4566.333620403613</v>
+        <v>4566.333620403612</v>
       </c>
       <c r="R44" t="n">
         <v>4692.417407580351</v>
@@ -7727,25 +7727,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J45" t="n">
-        <v>241.4963299034529</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="K45" t="n">
-        <v>302.0892292003572</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="L45" t="n">
-        <v>792.8215620441084</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="M45" t="n">
-        <v>1384.839916296236</v>
+        <v>833.5146841555818</v>
       </c>
       <c r="N45" t="n">
-        <v>2006.935879695572</v>
+        <v>1455.610647554919</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.812354695766</v>
+        <v>2002.487122555114</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.812354695766</v>
+        <v>2422.070640981191</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.812354695766</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>495.0957149476001</v>
+        <v>495.0957149476028</v>
       </c>
       <c r="C46" t="n">
-        <v>495.0957149476001</v>
+        <v>326.1595320196959</v>
       </c>
       <c r="D46" t="n">
-        <v>495.0957149476001</v>
+        <v>176.0428926073602</v>
       </c>
       <c r="E46" t="n">
-        <v>495.0957149476001</v>
+        <v>176.0428926073602</v>
       </c>
       <c r="F46" t="n">
-        <v>485.566145539011</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="G46" t="n">
-        <v>318.3519507135898</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H46" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I46" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J46" t="n">
-        <v>172.8304710411609</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K46" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L46" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948597</v>
       </c>
       <c r="M46" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N46" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931027</v>
       </c>
       <c r="O46" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946057</v>
       </c>
       <c r="P46" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q46" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="R46" t="n">
-        <v>2361.553154294196</v>
+        <v>2361.553154294199</v>
       </c>
       <c r="S46" t="n">
-        <v>2178.382964033126</v>
+        <v>2178.382964033129</v>
       </c>
       <c r="T46" t="n">
-        <v>1958.704181747508</v>
+        <v>1958.704181747511</v>
       </c>
       <c r="U46" t="n">
-        <v>1669.627968062235</v>
+        <v>1669.627968062238</v>
       </c>
       <c r="V46" t="n">
-        <v>1414.943479856348</v>
+        <v>1414.943479856351</v>
       </c>
       <c r="W46" t="n">
-        <v>1125.526309819387</v>
+        <v>1125.52630981939</v>
       </c>
       <c r="X46" t="n">
-        <v>897.5367589213699</v>
+        <v>897.5367589213727</v>
       </c>
       <c r="Y46" t="n">
-        <v>676.7441797778398</v>
+        <v>676.7441797778425</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,13 +8069,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9238900028826</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992659</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8294,19 +8294,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627889</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8701,7 +8701,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>51.31264782909102</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>51.31264782908309</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>51.31264782908289</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8941,7 +8941,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>51.31264782909113</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>51.31264782909091</v>
+        <v>51.31264782908289</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9415,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>51.31264782909113</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>51.31264782908309</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>51.31264782909091</v>
+        <v>51.31264782908309</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>51.31264782909091</v>
+        <v>51.312647829084</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>51.31264782908374</v>
       </c>
       <c r="K29" t="n">
-        <v>51.31264782909096</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>51.31264782909113</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>51.312647829084</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>51.31264782909091</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>51.31264782908309</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>51.31264782909091</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10837,7 +10837,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>51.31264782908238</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -11077,13 +11077,13 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>51.31264782909125</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>51.31264782908309</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11299,10 +11299,10 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>51.31264782909096</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>51.31264782908283</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>8.824338165164534</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>20.78418002865078</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440903</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23658,10 +23658,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>49.2649281540816</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>76.00797063971555</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440903</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23892,16 +23892,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>60.1621704186315</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
-        <v>17.35855759217067</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>12.01876316044567</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>157.8125473841246</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>0.4319777332133299</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>157.8125473841246</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>143.3016600672215</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S28" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>132.2817966595327</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>98.14531849759335</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>116.555312616872</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>102.2189014557794</v>
+        <v>141.5968918457607</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I34" t="n">
-        <v>81.80457674440903</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25314,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>76.49076379342044</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>67.18075159108356</v>
+        <v>43.23559055967713</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>143.3016600672215</v>
       </c>
       <c r="D40" t="n">
-        <v>43.284955299469</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I40" t="n">
-        <v>81.80457674440903</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S40" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25788,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>43.23559055967969</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>143.3016600672215</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I43" t="n">
-        <v>81.80457674440903</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>135.986774308428</v>
+        <v>64.04844901173563</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>649618.7185000008</v>
+        <v>649618.7185000007</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>649618.7185000008</v>
+        <v>649618.7185000007</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>649618.7185000008</v>
+        <v>649618.7185000007</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>649618.7185000009</v>
+        <v>649618.7185000007</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>649618.7185000009</v>
+        <v>649618.7185000008</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>649618.7185000009</v>
+        <v>649618.7185000008</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>649618.7185000008</v>
+        <v>649618.7185000007</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>649618.7185000009</v>
+        <v>649618.7185000007</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>649618.7185000008</v>
+        <v>649618.7185000007</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>649618.7185000008</v>
+        <v>649618.7185000007</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710687</v>
       </c>
       <c r="C2" t="n">
         <v>779989.6813710689</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710687</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="E2" t="n">
-        <v>766348.8282626313</v>
+        <v>766348.828262632</v>
       </c>
       <c r="F2" t="n">
-        <v>766348.8282626313</v>
+        <v>766348.8282626319</v>
       </c>
       <c r="G2" t="n">
-        <v>766348.8282626313</v>
+        <v>766348.8282626319</v>
       </c>
       <c r="H2" t="n">
+        <v>766348.8282626318</v>
+      </c>
+      <c r="I2" t="n">
         <v>766348.8282626317</v>
       </c>
-      <c r="I2" t="n">
-        <v>766348.8282626314</v>
-      </c>
       <c r="J2" t="n">
-        <v>766348.8282626313</v>
+        <v>766348.8282626315</v>
       </c>
       <c r="K2" t="n">
-        <v>766348.8282626314</v>
+        <v>766348.8282626321</v>
       </c>
       <c r="L2" t="n">
-        <v>766348.8282626317</v>
+        <v>766348.8282626318</v>
       </c>
       <c r="M2" t="n">
-        <v>766348.8282626313</v>
+        <v>766348.828262632</v>
       </c>
       <c r="N2" t="n">
-        <v>766348.8282626314</v>
+        <v>766348.8282626318</v>
       </c>
       <c r="O2" t="n">
-        <v>766348.8282626312</v>
+        <v>766348.8282626318</v>
       </c>
       <c r="P2" t="n">
-        <v>766348.8282626315</v>
+        <v>766348.8282626319</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>936509.6654545121</v>
+        <v>936509.6654545134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124307.2113901372</v>
+        <v>124307.2113901371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,43 +26423,43 @@
         <v>192206.5963924297</v>
       </c>
       <c r="D4" t="n">
-        <v>192206.5963924297</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="E4" t="n">
-        <v>5069.915760662952</v>
+        <v>5069.915760662823</v>
       </c>
       <c r="F4" t="n">
-        <v>5069.915760662965</v>
+        <v>5069.915760662821</v>
       </c>
       <c r="G4" t="n">
-        <v>5069.915760662916</v>
+        <v>5069.915760662861</v>
       </c>
       <c r="H4" t="n">
-        <v>5069.915760662962</v>
+        <v>5069.915760662822</v>
       </c>
       <c r="I4" t="n">
-        <v>5069.915760662916</v>
+        <v>5069.915760662823</v>
       </c>
       <c r="J4" t="n">
-        <v>5069.915760662916</v>
+        <v>5069.915760662833</v>
       </c>
       <c r="K4" t="n">
-        <v>5069.915760662916</v>
+        <v>5069.915760662831</v>
       </c>
       <c r="L4" t="n">
-        <v>5069.915760662919</v>
+        <v>5069.915760662833</v>
       </c>
       <c r="M4" t="n">
-        <v>5069.915760662957</v>
+        <v>5069.915760662823</v>
       </c>
       <c r="N4" t="n">
-        <v>5069.915760662915</v>
+        <v>5069.915760662858</v>
       </c>
       <c r="O4" t="n">
-        <v>5069.91576066292</v>
+        <v>5069.915760662823</v>
       </c>
       <c r="P4" t="n">
-        <v>5069.915760662916</v>
+        <v>5069.91576066282</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="F5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="G5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="H5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="I5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="J5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="K5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="L5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="M5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="N5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="O5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="P5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-85043.87229931456</v>
+        <v>-85043.87229931503</v>
       </c>
       <c r="C6" t="n">
         <v>504924.0069152297</v>
       </c>
       <c r="D6" t="n">
-        <v>504924.0069152295</v>
+        <v>504924.0069152297</v>
       </c>
       <c r="E6" t="n">
-        <v>-276519.7622284254</v>
+        <v>-276196.6893916471</v>
       </c>
       <c r="F6" t="n">
-        <v>659989.9032260868</v>
+        <v>660312.976062866</v>
       </c>
       <c r="G6" t="n">
-        <v>659989.9032260869</v>
+        <v>660312.976062866</v>
       </c>
       <c r="H6" t="n">
-        <v>659989.9032260871</v>
+        <v>660312.976062866</v>
       </c>
       <c r="I6" t="n">
-        <v>659989.903226087</v>
+        <v>660312.9760628658</v>
       </c>
       <c r="J6" t="n">
-        <v>483566.6840334939</v>
+        <v>483889.7568702728</v>
       </c>
       <c r="K6" t="n">
-        <v>659989.903226087</v>
+        <v>660312.9760628663</v>
       </c>
       <c r="L6" t="n">
-        <v>659989.9032260872</v>
+        <v>660312.9760628659</v>
       </c>
       <c r="M6" t="n">
-        <v>535682.6918359495</v>
+        <v>536005.7646727291</v>
       </c>
       <c r="N6" t="n">
-        <v>659989.903226087</v>
+        <v>660312.976062866</v>
       </c>
       <c r="O6" t="n">
-        <v>659989.9032260868</v>
+        <v>660312.976062866</v>
       </c>
       <c r="P6" t="n">
-        <v>659989.9032260871</v>
+        <v>660312.976062866</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26718,7 +26718,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26737,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716387</v>
       </c>
       <c r="F3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716387</v>
       </c>
       <c r="G3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716387</v>
       </c>
       <c r="H3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716387</v>
       </c>
       <c r="I3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716387</v>
       </c>
       <c r="J3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716387</v>
       </c>
       <c r="K3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716387</v>
       </c>
       <c r="L3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716387</v>
       </c>
       <c r="M3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716387</v>
       </c>
       <c r="N3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716387</v>
       </c>
       <c r="O3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716387</v>
       </c>
       <c r="P3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716387</v>
       </c>
     </row>
     <row r="4">
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>980.2973844992989</v>
+        <v>980.2973844993005</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.8170791405322</v>
+        <v>498.817079140532</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27384,19 +27384,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>317.9393845730378</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>7.478382179942116</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27438,7 +27438,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27548,7 +27548,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>120.1051426060689</v>
+        <v>120.1051426060687</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27618,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>64.97345050525871</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>321.4685793061306</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27776,10 +27776,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>137.9124196843001</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27833,16 +27833,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>96.92615468724708</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27861,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>48.1947234108078</v>
       </c>
       <c r="S8" t="n">
-        <v>168.4323246176523</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27912,7 +27912,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>165.3051017946056</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>7.71678812803845e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28341,7 +28341,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28581,7 +28581,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28818,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -30054,7 +30054,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30237,7 +30237,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H11" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J11" t="n">
-        <v>463.3649706874064</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K11" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L11" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M11" t="n">
-        <v>958.6336695293307</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N11" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O11" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P11" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q11" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R11" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S11" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T11" t="n">
-        <v>23.89879272665719</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U11" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H12" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>275.9770021735818</v>
+        <v>275.9770021735821</v>
       </c>
       <c r="K12" t="n">
-        <v>471.6886536848224</v>
+        <v>471.688653684823</v>
       </c>
       <c r="L12" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745732</v>
       </c>
       <c r="M12" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504309</v>
       </c>
       <c r="N12" t="n">
-        <v>382.7677754386397</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>394.0223077997468</v>
       </c>
       <c r="P12" t="n">
-        <v>557.7961431982453</v>
+        <v>557.796143198246</v>
       </c>
       <c r="Q12" t="n">
-        <v>372.8719498286952</v>
+        <v>372.8719498286956</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T12" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H13" t="n">
-        <v>21.77318271548567</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I13" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J13" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K13" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L13" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M13" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N13" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O13" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P13" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q13" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R13" t="n">
-        <v>110.1126397860859</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S13" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T13" t="n">
-        <v>10.46359496551969</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874064</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K14" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M14" t="n">
-        <v>958.6336695293307</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S14" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T14" t="n">
-        <v>23.89879272665719</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U14" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H15" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>275.9770021735818</v>
+        <v>275.9770021735821</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
@@ -32086,31 +32086,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>640.3146339032915</v>
+        <v>740.1323715504309</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927647</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426204</v>
+        <v>694.9967242426213</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982453</v>
+        <v>557.796143198246</v>
       </c>
       <c r="Q15" t="n">
-        <v>372.8719498286952</v>
+        <v>273.0542121815526</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H16" t="n">
-        <v>21.77318271548567</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J16" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K16" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P16" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q16" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R16" t="n">
-        <v>110.1126397860859</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T16" t="n">
-        <v>10.46359496551969</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H17" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J17" t="n">
-        <v>463.3649706874064</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K17" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L17" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M17" t="n">
-        <v>958.6336695293307</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N17" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O17" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P17" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q17" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R17" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S17" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T17" t="n">
-        <v>23.89879272665719</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U17" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H18" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>275.9770021735818</v>
+        <v>275.9770021735821</v>
       </c>
       <c r="K18" t="n">
-        <v>471.6886536848224</v>
+        <v>471.688653684823</v>
       </c>
       <c r="L18" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745732</v>
       </c>
       <c r="M18" t="n">
-        <v>740.1323715504301</v>
+        <v>439.1579551075565</v>
       </c>
       <c r="N18" t="n">
-        <v>759.7214730927637</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>422.3544583169088</v>
+        <v>694.9967242426213</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>557.796143198246</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286956</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T18" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H19" t="n">
-        <v>21.77318271548567</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I19" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J19" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K19" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L19" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M19" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N19" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O19" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P19" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q19" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R19" t="n">
-        <v>110.1126397860859</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S19" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T19" t="n">
-        <v>10.46359496551969</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H20" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J20" t="n">
-        <v>463.3649706874064</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K20" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L20" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M20" t="n">
-        <v>958.6336695293307</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N20" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O20" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P20" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q20" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R20" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S20" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T20" t="n">
-        <v>23.89879272665719</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U20" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H21" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>275.9770021735818</v>
+        <v>275.9770021735821</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>634.2436048745724</v>
+        <v>271.6268178754055</v>
       </c>
       <c r="M21" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504309</v>
       </c>
       <c r="N21" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927647</v>
       </c>
       <c r="O21" t="n">
-        <v>694.9967242426204</v>
+        <v>694.9967242426213</v>
       </c>
       <c r="P21" t="n">
-        <v>195.1793561990821</v>
+        <v>557.796143198246</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T21" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H22" t="n">
-        <v>21.77318271548567</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I22" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J22" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K22" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L22" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M22" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N22" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O22" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P22" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q22" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R22" t="n">
-        <v>110.1126397860859</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S22" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T22" t="n">
-        <v>10.46359496551969</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H23" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J23" t="n">
-        <v>463.3649706874064</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K23" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L23" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M23" t="n">
-        <v>958.6336695293307</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N23" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O23" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P23" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q23" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R23" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S23" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T23" t="n">
-        <v>23.89879272665719</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U23" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H24" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>275.9770021735818</v>
+        <v>275.9770021735821</v>
       </c>
       <c r="K24" t="n">
-        <v>471.6886536848224</v>
+        <v>471.688653684823</v>
       </c>
       <c r="L24" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745732</v>
       </c>
       <c r="M24" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504309</v>
       </c>
       <c r="N24" t="n">
-        <v>759.7214730927637</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>189.4642825742353</v>
+        <v>694.9967242426213</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>489.7119024980454</v>
       </c>
       <c r="Q24" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T24" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H25" t="n">
-        <v>21.77318271548567</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I25" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J25" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K25" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L25" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M25" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N25" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O25" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P25" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q25" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R25" t="n">
-        <v>110.1126397860859</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S25" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T25" t="n">
-        <v>10.46359496551969</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H26" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J26" t="n">
-        <v>463.3649706874064</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K26" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L26" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M26" t="n">
-        <v>958.6336695293307</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N26" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O26" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P26" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q26" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R26" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S26" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T26" t="n">
-        <v>23.89879272665719</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U26" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H27" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>275.9770021735818</v>
+        <v>275.9770021735821</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>373.222989603604</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745732</v>
       </c>
       <c r="M27" t="n">
-        <v>640.3146339032915</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927647</v>
       </c>
       <c r="O27" t="n">
-        <v>694.9967242426204</v>
+        <v>694.9967242426213</v>
       </c>
       <c r="P27" t="n">
-        <v>557.7961431982453</v>
+        <v>557.796143198246</v>
       </c>
       <c r="Q27" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T27" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H28" t="n">
-        <v>21.77318271548567</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I28" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J28" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K28" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L28" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M28" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N28" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O28" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P28" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q28" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R28" t="n">
-        <v>110.1126397860859</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S28" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T28" t="n">
-        <v>10.46359496551969</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H29" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J29" t="n">
-        <v>463.3649706874064</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K29" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L29" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M29" t="n">
-        <v>958.6336695293307</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N29" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O29" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P29" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q29" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R29" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S29" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T29" t="n">
-        <v>23.89879272665719</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U29" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H30" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>199.0463877591108</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>634.2436048745724</v>
+        <v>187.8760176396468</v>
       </c>
       <c r="M30" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504309</v>
       </c>
       <c r="N30" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927647</v>
       </c>
       <c r="O30" t="n">
-        <v>694.9967242426204</v>
+        <v>694.9967242426213</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>557.796143198246</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286956</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T30" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H31" t="n">
-        <v>21.77318271548567</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I31" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J31" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K31" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L31" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M31" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N31" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O31" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P31" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q31" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R31" t="n">
-        <v>110.1126397860859</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S31" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T31" t="n">
-        <v>10.46359496551969</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H32" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J32" t="n">
-        <v>463.3649706874064</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K32" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L32" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M32" t="n">
-        <v>958.6336695293307</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N32" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O32" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P32" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q32" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R32" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S32" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T32" t="n">
-        <v>23.89879272665719</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U32" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H33" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>275.9770021735818</v>
+        <v>275.9770021735821</v>
       </c>
       <c r="K33" t="n">
-        <v>471.6886536848224</v>
+        <v>471.688653684823</v>
       </c>
       <c r="L33" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745732</v>
       </c>
       <c r="M33" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504309</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>254.1890314243745</v>
       </c>
       <c r="O33" t="n">
-        <v>694.9967242426204</v>
+        <v>694.9967242426213</v>
       </c>
       <c r="P33" t="n">
-        <v>256.8217267553756</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>372.8719498286952</v>
+        <v>372.8719498286956</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T33" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H34" t="n">
-        <v>21.77318271548567</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I34" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J34" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K34" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L34" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M34" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N34" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O34" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P34" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q34" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R34" t="n">
-        <v>110.1126397860859</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S34" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T34" t="n">
-        <v>10.46359496551969</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H35" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J35" t="n">
-        <v>463.3649706874064</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K35" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L35" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M35" t="n">
-        <v>958.6336695293307</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N35" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O35" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P35" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q35" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R35" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S35" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T35" t="n">
-        <v>23.89879272665719</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U35" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,34 +33727,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H36" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>275.9770021735818</v>
+        <v>275.9770021735821</v>
       </c>
       <c r="K36" t="n">
-        <v>471.6886536848224</v>
+        <v>471.688653684823</v>
       </c>
       <c r="L36" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745732</v>
       </c>
       <c r="M36" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504309</v>
       </c>
       <c r="N36" t="n">
-        <v>759.7214730927637</v>
+        <v>615.65795118131</v>
       </c>
       <c r="O36" t="n">
-        <v>422.3544583169088</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>557.796143198246</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T36" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H37" t="n">
-        <v>21.77318271548567</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I37" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J37" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K37" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L37" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M37" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N37" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O37" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P37" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q37" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R37" t="n">
-        <v>110.1126397860859</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S37" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T37" t="n">
-        <v>10.46359496551969</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H38" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J38" t="n">
-        <v>463.3649706874064</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K38" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L38" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M38" t="n">
-        <v>958.6336695293307</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N38" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O38" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P38" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q38" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R38" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S38" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T38" t="n">
-        <v>23.89879272665719</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U38" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H39" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>275.9770021735818</v>
+        <v>275.9770021735821</v>
       </c>
       <c r="K39" t="n">
-        <v>471.6886536848224</v>
+        <v>471.688653684823</v>
       </c>
       <c r="L39" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745732</v>
       </c>
       <c r="M39" t="n">
-        <v>740.1323715504301</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>254.1890314243787</v>
+        <v>428.3656332688715</v>
       </c>
       <c r="O39" t="n">
-        <v>694.9967242426204</v>
+        <v>694.9967242426213</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>557.796143198246</v>
       </c>
       <c r="Q39" t="n">
-        <v>372.8719498286952</v>
+        <v>372.8719498286956</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T39" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H40" t="n">
-        <v>21.77318271548567</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I40" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J40" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K40" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L40" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M40" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N40" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O40" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P40" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q40" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R40" t="n">
-        <v>110.1126397860859</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S40" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T40" t="n">
-        <v>10.46359496551969</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H41" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J41" t="n">
-        <v>463.3649706874064</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K41" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L41" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M41" t="n">
-        <v>958.6336695293307</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N41" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O41" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P41" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q41" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R41" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S41" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T41" t="n">
-        <v>23.89879272665719</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U41" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H42" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>275.9770021735818</v>
+        <v>275.9770021735821</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>471.688653684823</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745732</v>
       </c>
       <c r="M42" t="n">
-        <v>640.3146339032915</v>
+        <v>740.1323715504309</v>
       </c>
       <c r="N42" t="n">
-        <v>759.7214730927637</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>694.9967242426204</v>
+        <v>394.0223077997468</v>
       </c>
       <c r="P42" t="n">
-        <v>557.7961431982453</v>
+        <v>557.796143198246</v>
       </c>
       <c r="Q42" t="n">
-        <v>372.8719498286952</v>
+        <v>372.8719498286956</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T42" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H43" t="n">
-        <v>21.77318271548567</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I43" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J43" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K43" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L43" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M43" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N43" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O43" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P43" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q43" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R43" t="n">
-        <v>110.1126397860859</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S43" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T43" t="n">
-        <v>10.46359496551969</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H44" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J44" t="n">
-        <v>463.3649706874064</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K44" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L44" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M44" t="n">
-        <v>958.6336695293307</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N44" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O44" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P44" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q44" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R44" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S44" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T44" t="n">
-        <v>23.89879272665719</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U44" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H45" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>275.9770021735818</v>
+        <v>275.9770021735821</v>
       </c>
       <c r="K45" t="n">
-        <v>199.0463877591108</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>634.2436048745724</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504309</v>
       </c>
       <c r="N45" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927647</v>
       </c>
       <c r="O45" t="n">
-        <v>694.9967242426204</v>
+        <v>694.9967242426213</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>557.796143198246</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>273.0542121815526</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T45" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H46" t="n">
-        <v>21.77318271548567</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I46" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J46" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K46" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L46" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M46" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N46" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O46" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P46" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q46" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R46" t="n">
-        <v>110.1126397860859</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S46" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T46" t="n">
-        <v>10.46359496551969</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328935</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35014,19 +35014,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307155</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607207</v>
       </c>
       <c r="K11" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L11" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M11" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N11" t="n">
-        <v>796.0449487554608</v>
+        <v>744.732300926371</v>
       </c>
       <c r="O11" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P11" t="n">
-        <v>553.8443926134828</v>
+        <v>553.8443926134837</v>
       </c>
       <c r="Q11" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R11" t="n">
-        <v>127.3573607845841</v>
+        <v>178.6700086136676</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>149.1393755069151</v>
+        <v>149.1393755069154</v>
       </c>
       <c r="K12" t="n">
-        <v>333.8472147104634</v>
+        <v>333.847214710464</v>
       </c>
       <c r="L12" t="n">
-        <v>495.6892250946982</v>
+        <v>495.689225094699</v>
       </c>
       <c r="M12" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284126</v>
       </c>
       <c r="N12" t="n">
-        <v>251.4260633553063</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>251.4260633553024</v>
       </c>
       <c r="P12" t="n">
-        <v>423.8217357839151</v>
+        <v>423.8217357839158</v>
       </c>
       <c r="Q12" t="n">
-        <v>232.8901757426737</v>
+        <v>232.8901757426741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066069</v>
       </c>
       <c r="K13" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642061</v>
       </c>
       <c r="L13" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243784</v>
       </c>
       <c r="M13" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883432</v>
       </c>
       <c r="N13" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209164</v>
       </c>
       <c r="O13" t="n">
-        <v>370.7297545606359</v>
+        <v>370.7297545606363</v>
       </c>
       <c r="P13" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931362</v>
       </c>
       <c r="Q13" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044801</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607201</v>
+        <v>333.6317139898036</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L14" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M14" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N14" t="n">
-        <v>744.7323009263698</v>
+        <v>744.732300926371</v>
       </c>
       <c r="O14" t="n">
-        <v>741.0722806160995</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P14" t="n">
-        <v>553.8443926134828</v>
+        <v>553.8443926134837</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845846</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>149.1393755069151</v>
+        <v>149.1393755069154</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35734,19 +35734,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>498.1805999812731</v>
+        <v>597.9983376284126</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094314</v>
       </c>
       <c r="O15" t="n">
-        <v>552.400479798176</v>
+        <v>552.4004797981769</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839151</v>
+        <v>423.8217357839158</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8901757426737</v>
+        <v>133.0724380955311</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066069</v>
       </c>
       <c r="K16" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642061</v>
       </c>
       <c r="L16" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243784</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883432</v>
       </c>
       <c r="N16" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209164</v>
       </c>
       <c r="O16" t="n">
-        <v>370.7297545606359</v>
+        <v>370.7297545606363</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931362</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044801</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>333.631713989811</v>
+        <v>333.6317139898036</v>
       </c>
       <c r="K17" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L17" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M17" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N17" t="n">
-        <v>744.7323009263698</v>
+        <v>744.732300926371</v>
       </c>
       <c r="O17" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P17" t="n">
-        <v>553.8443926134828</v>
+        <v>553.8443926134837</v>
       </c>
       <c r="Q17" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R17" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845846</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>149.1393755069151</v>
+        <v>149.1393755069154</v>
       </c>
       <c r="K18" t="n">
-        <v>333.8472147104634</v>
+        <v>333.847214710464</v>
       </c>
       <c r="L18" t="n">
-        <v>495.6892250946982</v>
+        <v>495.689225094699</v>
       </c>
       <c r="M18" t="n">
-        <v>597.9983376284117</v>
+        <v>297.0239211855382</v>
       </c>
       <c r="N18" t="n">
-        <v>628.3797610094305</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>279.7582138724644</v>
+        <v>552.4004797981769</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>423.8217357839158</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>232.8901757426741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066069</v>
       </c>
       <c r="K19" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642061</v>
       </c>
       <c r="L19" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243784</v>
       </c>
       <c r="M19" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883432</v>
       </c>
       <c r="N19" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209164</v>
       </c>
       <c r="O19" t="n">
-        <v>370.7297545606359</v>
+        <v>370.7297545606363</v>
       </c>
       <c r="P19" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931362</v>
       </c>
       <c r="Q19" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044801</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607207</v>
       </c>
       <c r="K20" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L20" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M20" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N20" t="n">
-        <v>744.7323009263698</v>
+        <v>744.732300926371</v>
       </c>
       <c r="O20" t="n">
-        <v>741.0722806160995</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P20" t="n">
-        <v>553.8443926134828</v>
+        <v>553.8443926134837</v>
       </c>
       <c r="Q20" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R20" t="n">
-        <v>127.3573607845841</v>
+        <v>178.6700086136676</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>149.1393755069151</v>
+        <v>149.1393755069154</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>495.6892250946982</v>
+        <v>133.0724380955314</v>
       </c>
       <c r="M21" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284126</v>
       </c>
       <c r="N21" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094314</v>
       </c>
       <c r="O21" t="n">
-        <v>552.400479798176</v>
+        <v>552.4004797981769</v>
       </c>
       <c r="P21" t="n">
-        <v>61.20494878475183</v>
+        <v>423.8217357839158</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066069</v>
       </c>
       <c r="K22" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642061</v>
       </c>
       <c r="L22" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243784</v>
       </c>
       <c r="M22" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883432</v>
       </c>
       <c r="N22" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209164</v>
       </c>
       <c r="O22" t="n">
-        <v>370.7297545606359</v>
+        <v>370.7297545606363</v>
       </c>
       <c r="P22" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931362</v>
       </c>
       <c r="Q22" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044801</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607207</v>
       </c>
       <c r="K23" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L23" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M23" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N23" t="n">
-        <v>744.7323009263698</v>
+        <v>744.732300926371</v>
       </c>
       <c r="O23" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P23" t="n">
-        <v>553.8443926134828</v>
+        <v>553.8443926134837</v>
       </c>
       <c r="Q23" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R23" t="n">
-        <v>178.670008613675</v>
+        <v>178.6700086136676</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>149.1393755069151</v>
+        <v>149.1393755069154</v>
       </c>
       <c r="K24" t="n">
-        <v>333.8472147104634</v>
+        <v>333.847214710464</v>
       </c>
       <c r="L24" t="n">
-        <v>495.6892250946982</v>
+        <v>495.689225094699</v>
       </c>
       <c r="M24" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284126</v>
       </c>
       <c r="N24" t="n">
-        <v>628.3797610094305</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>46.86803812979091</v>
+        <v>552.4004797981769</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>355.7374950837152</v>
       </c>
       <c r="Q24" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066069</v>
       </c>
       <c r="K25" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642061</v>
       </c>
       <c r="L25" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243784</v>
       </c>
       <c r="M25" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883432</v>
       </c>
       <c r="N25" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209164</v>
       </c>
       <c r="O25" t="n">
-        <v>370.7297545606359</v>
+        <v>370.7297545606363</v>
       </c>
       <c r="P25" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931362</v>
       </c>
       <c r="Q25" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044801</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607207</v>
       </c>
       <c r="K26" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L26" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M26" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N26" t="n">
-        <v>744.7323009263698</v>
+        <v>744.732300926371</v>
       </c>
       <c r="O26" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P26" t="n">
-        <v>553.8443926134828</v>
+        <v>553.8443926134837</v>
       </c>
       <c r="Q26" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R26" t="n">
-        <v>178.670008613675</v>
+        <v>178.6700086136686</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>149.1393755069151</v>
+        <v>149.1393755069154</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>235.381550629245</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>495.689225094699</v>
       </c>
       <c r="M27" t="n">
-        <v>498.1805999812731</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094314</v>
       </c>
       <c r="O27" t="n">
-        <v>552.400479798176</v>
+        <v>552.4004797981769</v>
       </c>
       <c r="P27" t="n">
-        <v>423.8217357839151</v>
+        <v>423.8217357839158</v>
       </c>
       <c r="Q27" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066069</v>
       </c>
       <c r="K28" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642061</v>
       </c>
       <c r="L28" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243784</v>
       </c>
       <c r="M28" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883432</v>
       </c>
       <c r="N28" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209164</v>
       </c>
       <c r="O28" t="n">
-        <v>370.7297545606359</v>
+        <v>370.7297545606363</v>
       </c>
       <c r="P28" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931362</v>
       </c>
       <c r="Q28" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044801</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>282.3190661607201</v>
+        <v>333.6317139898044</v>
       </c>
       <c r="K29" t="n">
-        <v>525.6867728671534</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L29" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M29" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N29" t="n">
-        <v>744.7323009263698</v>
+        <v>744.732300926371</v>
       </c>
       <c r="O29" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P29" t="n">
-        <v>553.8443926134828</v>
+        <v>553.8443926134837</v>
       </c>
       <c r="Q29" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R29" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845846</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>61.20494878475177</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>495.6892250946982</v>
+        <v>49.32163785977257</v>
       </c>
       <c r="M30" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284126</v>
       </c>
       <c r="N30" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094314</v>
       </c>
       <c r="O30" t="n">
-        <v>552.400479798176</v>
+        <v>552.4004797981769</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>423.8217357839158</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>232.8901757426741</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066069</v>
       </c>
       <c r="K31" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642061</v>
       </c>
       <c r="L31" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243784</v>
       </c>
       <c r="M31" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883432</v>
       </c>
       <c r="N31" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209164</v>
       </c>
       <c r="O31" t="n">
-        <v>370.7297545606359</v>
+        <v>370.7297545606363</v>
       </c>
       <c r="P31" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931362</v>
       </c>
       <c r="Q31" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044801</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607207</v>
       </c>
       <c r="K32" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L32" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M32" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N32" t="n">
-        <v>744.7323009263698</v>
+        <v>744.732300926371</v>
       </c>
       <c r="O32" t="n">
-        <v>741.0722806160995</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P32" t="n">
-        <v>553.8443926134828</v>
+        <v>553.8443926134837</v>
       </c>
       <c r="Q32" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R32" t="n">
-        <v>127.3573607845841</v>
+        <v>178.6700086136686</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>149.1393755069151</v>
+        <v>149.1393755069154</v>
       </c>
       <c r="K33" t="n">
-        <v>333.8472147104634</v>
+        <v>333.847214710464</v>
       </c>
       <c r="L33" t="n">
-        <v>495.6892250946982</v>
+        <v>495.689225094699</v>
       </c>
       <c r="M33" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284126</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>122.8473193410413</v>
       </c>
       <c r="O33" t="n">
-        <v>552.400479798176</v>
+        <v>552.4004797981769</v>
       </c>
       <c r="P33" t="n">
-        <v>122.8473193410454</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>232.8901757426737</v>
+        <v>232.8901757426741</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066069</v>
       </c>
       <c r="K34" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642061</v>
       </c>
       <c r="L34" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243784</v>
       </c>
       <c r="M34" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883432</v>
       </c>
       <c r="N34" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209164</v>
       </c>
       <c r="O34" t="n">
-        <v>370.7297545606359</v>
+        <v>370.7297545606363</v>
       </c>
       <c r="P34" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931362</v>
       </c>
       <c r="Q34" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044801</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>333.631713989811</v>
+        <v>282.3190661607207</v>
       </c>
       <c r="K35" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L35" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M35" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N35" t="n">
-        <v>744.7323009263698</v>
+        <v>744.732300926371</v>
       </c>
       <c r="O35" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P35" t="n">
-        <v>553.8443926134828</v>
+        <v>553.8443926134837</v>
       </c>
       <c r="Q35" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R35" t="n">
-        <v>127.3573607845841</v>
+        <v>178.6700086136676</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>149.1393755069151</v>
+        <v>149.1393755069154</v>
       </c>
       <c r="K36" t="n">
-        <v>333.8472147104634</v>
+        <v>333.847214710464</v>
       </c>
       <c r="L36" t="n">
-        <v>495.6892250946982</v>
+        <v>495.689225094699</v>
       </c>
       <c r="M36" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284126</v>
       </c>
       <c r="N36" t="n">
-        <v>628.3797610094305</v>
+        <v>484.3162390979766</v>
       </c>
       <c r="O36" t="n">
-        <v>279.7582138724644</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>423.8217357839158</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066069</v>
       </c>
       <c r="K37" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642061</v>
       </c>
       <c r="L37" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243784</v>
       </c>
       <c r="M37" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883432</v>
       </c>
       <c r="N37" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209164</v>
       </c>
       <c r="O37" t="n">
-        <v>370.7297545606359</v>
+        <v>370.7297545606363</v>
       </c>
       <c r="P37" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931362</v>
       </c>
       <c r="Q37" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044801</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>333.631713989811</v>
+        <v>282.3190661607207</v>
       </c>
       <c r="K38" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L38" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M38" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N38" t="n">
-        <v>744.7323009263698</v>
+        <v>744.732300926371</v>
       </c>
       <c r="O38" t="n">
-        <v>689.7596327870084</v>
+        <v>741.0722806160918</v>
       </c>
       <c r="P38" t="n">
-        <v>553.8443926134828</v>
+        <v>553.8443926134837</v>
       </c>
       <c r="Q38" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R38" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845846</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>149.1393755069151</v>
+        <v>149.1393755069154</v>
       </c>
       <c r="K39" t="n">
-        <v>333.8472147104634</v>
+        <v>333.847214710464</v>
       </c>
       <c r="L39" t="n">
-        <v>495.6892250946982</v>
+        <v>495.689225094699</v>
       </c>
       <c r="M39" t="n">
-        <v>597.9983376284117</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>122.8473193410454</v>
+        <v>297.0239211855382</v>
       </c>
       <c r="O39" t="n">
-        <v>552.400479798176</v>
+        <v>552.4004797981769</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>423.8217357839158</v>
       </c>
       <c r="Q39" t="n">
-        <v>232.8901757426737</v>
+        <v>232.8901757426741</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066069</v>
       </c>
       <c r="K40" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642061</v>
       </c>
       <c r="L40" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243784</v>
       </c>
       <c r="M40" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883432</v>
       </c>
       <c r="N40" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209164</v>
       </c>
       <c r="O40" t="n">
-        <v>370.7297545606359</v>
+        <v>370.7297545606363</v>
       </c>
       <c r="P40" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931362</v>
       </c>
       <c r="Q40" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044801</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607207</v>
       </c>
       <c r="K41" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L41" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M41" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N41" t="n">
-        <v>744.7323009263698</v>
+        <v>744.732300926371</v>
       </c>
       <c r="O41" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P41" t="n">
-        <v>605.157040442574</v>
+        <v>553.8443926134837</v>
       </c>
       <c r="Q41" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R41" t="n">
-        <v>127.3573607845841</v>
+        <v>178.6700086136676</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>149.1393755069151</v>
+        <v>149.1393755069154</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>333.847214710464</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>495.689225094699</v>
       </c>
       <c r="M42" t="n">
-        <v>498.1805999812731</v>
+        <v>597.9983376284126</v>
       </c>
       <c r="N42" t="n">
-        <v>628.3797610094305</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>552.400479798176</v>
+        <v>251.4260633553024</v>
       </c>
       <c r="P42" t="n">
-        <v>423.8217357839151</v>
+        <v>423.8217357839158</v>
       </c>
       <c r="Q42" t="n">
-        <v>232.8901757426737</v>
+        <v>232.8901757426741</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066069</v>
       </c>
       <c r="K43" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642061</v>
       </c>
       <c r="L43" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243784</v>
       </c>
       <c r="M43" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883432</v>
       </c>
       <c r="N43" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209164</v>
       </c>
       <c r="O43" t="n">
-        <v>370.7297545606359</v>
+        <v>370.7297545606363</v>
       </c>
       <c r="P43" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931362</v>
       </c>
       <c r="Q43" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044801</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607207</v>
       </c>
       <c r="K44" t="n">
-        <v>525.6867728671534</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L44" t="n">
-        <v>625.777556066439</v>
+        <v>677.090203895523</v>
       </c>
       <c r="M44" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N44" t="n">
-        <v>744.7323009263698</v>
+        <v>744.732300926371</v>
       </c>
       <c r="O44" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P44" t="n">
-        <v>553.8443926134828</v>
+        <v>553.8443926134837</v>
       </c>
       <c r="Q44" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R44" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845846</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>149.1393755069151</v>
+        <v>149.1393755069154</v>
       </c>
       <c r="K45" t="n">
-        <v>61.20494878475177</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>495.6892250946982</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284126</v>
       </c>
       <c r="N45" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094314</v>
       </c>
       <c r="O45" t="n">
-        <v>552.400479798176</v>
+        <v>552.4004797981769</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>423.8217357839158</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>133.0724380955311</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066069</v>
       </c>
       <c r="K46" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642061</v>
       </c>
       <c r="L46" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243784</v>
       </c>
       <c r="M46" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883432</v>
       </c>
       <c r="N46" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209164</v>
       </c>
       <c r="O46" t="n">
-        <v>370.7297545606359</v>
+        <v>370.7297545606363</v>
       </c>
       <c r="P46" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931362</v>
       </c>
       <c r="Q46" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044801</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
